--- a/results/master_log/baseline_predictions.xlsx
+++ b/results/master_log/baseline_predictions.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nat\PycharmProjects\PythonProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{37B3BCB5-6A69-480F-BE43-3920BBA4D288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB47EBA-27E1-43A7-BB3C-D684504A72C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{C6AAB067-BA66-4721-8093-4357771AE968}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline_predictions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="59">
   <si>
     <t>her</t>
   </si>
@@ -131,9 +144,6 @@
   </si>
   <si>
     <t>boy</t>
-  </si>
-  <si>
-    <t>running</t>
   </si>
   <si>
     <t>opens</t>
@@ -689,11 +699,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1073,8 +1086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA1CE8B4-0A1C-49CB-A134-247992E95791}">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1099,7 +1112,7 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -1121,19 +1134,13 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" s="3" t="b">
         <f>EXACT(F2,A2)</f>
         <v>0</v>
       </c>
-      <c r="H2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="b">
-        <f>EXACT(H2,A2)</f>
-        <v>1</v>
-      </c>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -1143,14 +1150,14 @@
         <v>23</v>
       </c>
       <c r="C3" s="3" t="b">
-        <f t="shared" ref="C3:C34" si="0">EXACT(A3,B3)</f>
+        <f t="shared" ref="C3:C18" si="0">EXACT(A3,B3)</f>
         <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="3" t="b">
-        <f t="shared" ref="E3:E38" si="1">EXACT(D3,A3)</f>
+        <f t="shared" ref="E3:E18" si="1">EXACT(D3,A3)</f>
         <v>1</v>
       </c>
       <c r="F3" t="s">
@@ -1160,13 +1167,7 @@
         <f t="shared" ref="G3:G38" si="2">EXACT(F3,A3)</f>
         <v>0</v>
       </c>
-      <c r="H3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3" t="b">
-        <f t="shared" ref="I3:I38" si="3">EXACT(H3,A3)</f>
-        <v>1</v>
-      </c>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
@@ -1193,13 +1194,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
@@ -1220,19 +1215,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G5" s="3" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
@@ -1246,7 +1235,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="E6" s="3" t="b">
         <f t="shared" si="1"/>
@@ -1259,13 +1248,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
@@ -1292,13 +1275,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
@@ -1325,13 +1302,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
@@ -1345,26 +1316,20 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="E9" s="3" t="b">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="3" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H9" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
@@ -1391,13 +1356,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
@@ -1424,13 +1383,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H11" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
@@ -1457,13 +1410,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H12" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
@@ -1484,19 +1431,13 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13" s="3" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
@@ -1517,19 +1458,13 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" s="3" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
@@ -1556,20 +1491,14 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H15" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="3" t="b">
         <f t="shared" si="0"/>
@@ -1583,23 +1512,17 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G16" s="3" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H16" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
@@ -1609,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E17" s="3" t="b">
         <f t="shared" si="1"/>
@@ -1622,17 +1545,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
@@ -1642,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E18" s="3" t="b">
         <f t="shared" si="1"/>
@@ -1655,13 +1572,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H18" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
@@ -1671,14 +1582,14 @@
         <v>30</v>
       </c>
       <c r="C19" s="3" t="b">
-        <f>EXACT(A19,B19)</f>
+        <f t="shared" ref="C19:C38" si="3">EXACT(A19,B19)</f>
         <v>0</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="3" t="b">
-        <f>EXACT(D19,A19)</f>
+        <f t="shared" ref="E19:E38" si="4">EXACT(D19,A19)</f>
         <v>1</v>
       </c>
       <c r="F19" t="s">
@@ -1688,13 +1599,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
@@ -1704,14 +1609,14 @@
         <v>5</v>
       </c>
       <c r="C20" s="3" t="b">
-        <f>EXACT(A20,B20)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
       </c>
       <c r="E20" s="3" t="b">
-        <f>EXACT(D20,A20)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F20" t="s">
@@ -1721,13 +1626,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
@@ -1737,14 +1636,14 @@
         <v>5</v>
       </c>
       <c r="C21" s="3" t="b">
-        <f>EXACT(A21,B21)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D21" t="s">
         <v>5</v>
       </c>
       <c r="E21" s="3" t="b">
-        <f>EXACT(D21,A21)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F21" t="s">
@@ -1754,13 +1653,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
@@ -1770,14 +1663,14 @@
         <v>10</v>
       </c>
       <c r="C22" s="3" t="b">
-        <f>EXACT(A22,B22)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
       </c>
       <c r="E22" s="3" t="b">
-        <f>EXACT(D22,A22)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F22" t="s">
@@ -1787,13 +1680,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
@@ -1803,14 +1690,14 @@
         <v>12</v>
       </c>
       <c r="C23" s="3" t="b">
-        <f>EXACT(A23,B23)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
       </c>
       <c r="E23" s="3" t="b">
-        <f>EXACT(D23,A23)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F23" t="s">
@@ -1820,13 +1707,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H23" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
@@ -1836,14 +1717,14 @@
         <v>13</v>
       </c>
       <c r="C24" s="3" t="b">
-        <f>EXACT(A24,B24)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D24" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="3" t="b">
-        <f>EXACT(D24,A24)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F24" t="s">
@@ -1853,13 +1734,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H24" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
@@ -1869,14 +1744,14 @@
         <v>31</v>
       </c>
       <c r="C25" s="3" t="b">
-        <f>EXACT(A25,B25)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D25" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="3" t="b">
-        <f>EXACT(D25,A25)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F25" t="s">
@@ -1886,13 +1761,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H25" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
@@ -1902,14 +1771,14 @@
         <v>32</v>
       </c>
       <c r="C26" s="3" t="b">
-        <f>EXACT(A26,B26)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
       </c>
       <c r="E26" s="3" t="b">
-        <f>EXACT(D26,A26)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F26" t="s">
@@ -1919,13 +1788,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
@@ -1935,14 +1798,14 @@
         <v>5</v>
       </c>
       <c r="C27" s="3" t="b">
-        <f>EXACT(A27,B27)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D27" t="s">
         <v>5</v>
       </c>
       <c r="E27" s="3" t="b">
-        <f>EXACT(D27,A27)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F27" t="s">
@@ -1952,13 +1815,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H27" t="s">
-        <v>5</v>
-      </c>
-      <c r="I27" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
@@ -1968,14 +1825,14 @@
         <v>6</v>
       </c>
       <c r="C28" s="3" t="b">
-        <f>EXACT(A28,B28)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="3" t="b">
-        <f>EXACT(D28,A28)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F28" t="s">
@@ -1985,30 +1842,24 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H28" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="3" t="b">
-        <f>EXACT(A29,B29)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="3" t="b">
-        <f>EXACT(D29,A29)</f>
+        <v>37</v>
+      </c>
+      <c r="E29" s="4" t="b">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F29" t="s">
@@ -2018,79 +1869,61 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H29" t="s">
-        <v>38</v>
-      </c>
-      <c r="I29" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="4" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
         <v>44</v>
       </c>
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="3" t="b">
-        <f>EXACT(A30,B30)</f>
-        <v>0</v>
-      </c>
-      <c r="D30" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="3" t="b">
-        <f>EXACT(D30,A30)</f>
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
-        <v>45</v>
-      </c>
       <c r="G30" s="3" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H30" t="s">
-        <v>39</v>
-      </c>
-      <c r="I30" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="3" t="b">
-        <f>EXACT(A31,B31)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="3" t="b">
-        <f>EXACT(D31,A31)</f>
+        <v>39</v>
+      </c>
+      <c r="E31" s="4" t="b">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G31" s="3" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H31" t="s">
-        <v>40</v>
-      </c>
-      <c r="I31" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
@@ -2100,14 +1933,14 @@
         <v>22</v>
       </c>
       <c r="C32" s="3" t="b">
-        <f>EXACT(A32,B32)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D32" t="s">
         <v>5</v>
       </c>
       <c r="E32" s="3" t="b">
-        <f>EXACT(D32,A32)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F32" t="s">
@@ -2117,13 +1950,7 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H32" t="s">
-        <v>5</v>
-      </c>
-      <c r="I32" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
@@ -2133,14 +1960,14 @@
         <v>33</v>
       </c>
       <c r="C33" s="3" t="b">
-        <f>EXACT(A33,B33)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D33" t="s">
         <v>5</v>
       </c>
       <c r="E33" s="3" t="b">
-        <f>EXACT(D33,A33)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F33" t="s">
@@ -2150,13 +1977,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H33" t="s">
-        <v>5</v>
-      </c>
-      <c r="I33" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
@@ -2166,14 +1987,14 @@
         <v>34</v>
       </c>
       <c r="C34" s="3" t="b">
-        <f>EXACT(A34,B34)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D34" t="s">
         <v>0</v>
       </c>
       <c r="E34" s="3" t="b">
-        <f>EXACT(D34,A34)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F34" t="s">
@@ -2183,13 +2004,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H34" t="s">
-        <v>0</v>
-      </c>
-      <c r="I34" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
@@ -2199,14 +2014,14 @@
         <v>5</v>
       </c>
       <c r="C35" s="3" t="b">
-        <f>EXACT(A35,B35)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
       </c>
       <c r="E35" s="3" t="b">
-        <f>EXACT(D35,A35)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F35" t="s">
@@ -2216,13 +2031,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H35" t="s">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
@@ -2232,14 +2041,14 @@
         <v>17</v>
       </c>
       <c r="C36" s="3" t="b">
-        <f>EXACT(A36,B36)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D36" t="s">
         <v>4</v>
       </c>
       <c r="E36" s="3" t="b">
-        <f>EXACT(D36,A36)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F36" t="s">
@@ -2249,13 +2058,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H36" t="s">
-        <v>4</v>
-      </c>
-      <c r="I36" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
@@ -2265,14 +2068,14 @@
         <v>35</v>
       </c>
       <c r="C37" s="3" t="b">
-        <f>EXACT(A37,B37)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D37" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="3" t="b">
-        <f>EXACT(D37,A37)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F37" t="s">
@@ -2282,13 +2085,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H37" t="s">
-        <v>3</v>
-      </c>
-      <c r="I37" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
@@ -2298,14 +2095,14 @@
         <v>36</v>
       </c>
       <c r="C38" s="3" t="b">
-        <f>EXACT(A38,B38)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D38" t="s">
         <v>17</v>
       </c>
       <c r="E38" s="3" t="b">
-        <f>EXACT(D38,A38)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="F38" t="s">
@@ -2315,17 +2112,11 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H38" t="s">
-        <v>17</v>
-      </c>
-      <c r="I38" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
+      <c r="I38" s="3"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" s="3">
         <f>COUNTIF(C2:C38,TRUE)</f>
@@ -2333,20 +2124,17 @@
       </c>
       <c r="E40" s="3">
         <f>COUNTIF(E2:E38,TRUE)</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G40" s="3">
         <f>COUNTIF(G2:G38,TRUE)</f>
         <v>15</v>
       </c>
-      <c r="I40" s="3">
-        <f>COUNTIF(I2:I38,TRUE)</f>
-        <v>27</v>
-      </c>
+      <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" s="3">
         <f>COUNTA(C2:C38)</f>
@@ -2360,14 +2148,11 @@
         <f>COUNTA(G2:G38)</f>
         <v>37</v>
       </c>
-      <c r="I41" s="3">
-        <f>COUNTA(I2:I38)</f>
-        <v>37</v>
-      </c>
+      <c r="I41" s="3"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="3">
         <f>(C40/C41)*100</f>
@@ -2375,16 +2160,13 @@
       </c>
       <c r="E42" s="3">
         <f>(E40/E41)*100</f>
-        <v>75.675675675675677</v>
+        <v>72.972972972972968</v>
       </c>
       <c r="G42" s="3">
         <f>(G40/G41)*100</f>
         <v>40.54054054054054</v>
       </c>
-      <c r="I42" s="3">
-        <f>(I40/I41)*100</f>
-        <v>72.972972972972968</v>
-      </c>
+      <c r="I42" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
